--- a/assets/data/asking_data.xlsx
+++ b/assets/data/asking_data.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/w/Desktop/coding/codes/meetqa/meetqa_admin/asset/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/w/Desktop/coding/codes/meetqa/meetqa/assets/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92218B4D-817F-5449-AFEA-0FFC24D1986B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF70C2E-AE56-BC4F-979A-80FC91014F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="500" windowWidth="27520" windowHeight="16940" xr2:uid="{221ABC66-D7D2-C840-A7BD-9A2356AA9BC1}"/>
+    <workbookView xWindow="1120" yWindow="500" windowWidth="27520" windowHeight="16940" activeTab="4" xr2:uid="{221ABC66-D7D2-C840-A7BD-9A2356AA9BC1}"/>
   </bookViews>
   <sheets>
-    <sheet name="첫 만남" sheetId="1" r:id="rId1"/>
-    <sheet name="아는 사이" sheetId="3" r:id="rId2"/>
-    <sheet name="시작하는 연인" sheetId="4" r:id="rId3"/>
-    <sheet name="오래된 연인" sheetId="5" r:id="rId4"/>
-    <sheet name="부부" sheetId="6" r:id="rId5"/>
+    <sheet name="FirstMeet" sheetId="1" r:id="rId1"/>
+    <sheet name="KnowPeople" sheetId="3" r:id="rId2"/>
+    <sheet name="StartCouple" sheetId="4" r:id="rId3"/>
+    <sheet name="LongtimeCouple" sheetId="5" r:id="rId4"/>
+    <sheet name="Married" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -988,11 +988,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1311,7 +1308,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{708975A4-0871-2C46-BBCD-E1DB3FAC6FA1}">
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -1328,26 +1325,26 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2427,26 +2424,26 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2980,26 +2977,26 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3533,26 +3530,26 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4069,8 +4066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91EE424D-F85C-8144-BFC7-4EBC8725A349}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -4086,26 +4083,26 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" t="s">
         <v>6</v>
       </c>
     </row>

--- a/assets/data/asking_data.xlsx
+++ b/assets/data/asking_data.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/w/Desktop/coding/codes/meetqa/meetqa/assets/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF70C2E-AE56-BC4F-979A-80FC91014F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB345692-3346-7649-AF82-766BEE3E7932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="500" windowWidth="27520" windowHeight="16940" activeTab="4" xr2:uid="{221ABC66-D7D2-C840-A7BD-9A2356AA9BC1}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{221ABC66-D7D2-C840-A7BD-9A2356AA9BC1}"/>
   </bookViews>
   <sheets>
     <sheet name="FirstMeet" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="339">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -141,234 +141,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sheet2질문임01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sheet2질문임02</t>
-  </si>
-  <si>
-    <t>sheet2질문임03</t>
-  </si>
-  <si>
-    <t>sheet2질문임04</t>
-  </si>
-  <si>
-    <t>sheet2질문임05</t>
-  </si>
-  <si>
-    <t>sheet2질문임06</t>
-  </si>
-  <si>
-    <t>sheet2질문임07</t>
-  </si>
-  <si>
-    <t>sheet2질문임08</t>
-  </si>
-  <si>
-    <t>sheet2질문임09</t>
-  </si>
-  <si>
-    <t>sheet2질문임10</t>
-  </si>
-  <si>
-    <t>sheet2질문임11</t>
-  </si>
-  <si>
-    <t>sheet2질문임12</t>
-  </si>
-  <si>
-    <t>sheet2질문임13</t>
-  </si>
-  <si>
-    <t>sheet2질문임14</t>
-  </si>
-  <si>
-    <t>sheet2질문임15</t>
-  </si>
-  <si>
-    <t>sheet2질문임16</t>
-  </si>
-  <si>
-    <t>sheet2질문임17</t>
-  </si>
-  <si>
-    <t>sheet2질문임18</t>
-  </si>
-  <si>
-    <t>sheet2질문임19</t>
-  </si>
-  <si>
-    <t>sheet2질문임20</t>
-  </si>
-  <si>
-    <t>sheet2질문임21</t>
-  </si>
-  <si>
-    <t>sheet2질문임22</t>
-  </si>
-  <si>
-    <t>sheet2질문임23</t>
-  </si>
-  <si>
-    <t>sheet2질문임24</t>
-  </si>
-  <si>
-    <t>sheet2질문임25</t>
-  </si>
-  <si>
-    <t>sheet3질문임01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sheet3질문임02</t>
-  </si>
-  <si>
-    <t>sheet3질문임03</t>
-  </si>
-  <si>
-    <t>sheet3질문임04</t>
-  </si>
-  <si>
-    <t>sheet3질문임05</t>
-  </si>
-  <si>
-    <t>sheet3질문임06</t>
-  </si>
-  <si>
-    <t>sheet3질문임07</t>
-  </si>
-  <si>
-    <t>sheet3질문임08</t>
-  </si>
-  <si>
-    <t>sheet3질문임09</t>
-  </si>
-  <si>
-    <t>sheet3질문임10</t>
-  </si>
-  <si>
-    <t>sheet3질문임11</t>
-  </si>
-  <si>
-    <t>sheet3질문임12</t>
-  </si>
-  <si>
-    <t>sheet3질문임13</t>
-  </si>
-  <si>
-    <t>sheet3질문임14</t>
-  </si>
-  <si>
-    <t>sheet3질문임15</t>
-  </si>
-  <si>
-    <t>sheet3질문임16</t>
-  </si>
-  <si>
-    <t>sheet3질문임17</t>
-  </si>
-  <si>
-    <t>sheet3질문임18</t>
-  </si>
-  <si>
-    <t>sheet3질문임19</t>
-  </si>
-  <si>
-    <t>sheet3질문임20</t>
-  </si>
-  <si>
-    <t>sheet3질문임21</t>
-  </si>
-  <si>
-    <t>sheet3질문임22</t>
-  </si>
-  <si>
-    <t>sheet3질문임23</t>
-  </si>
-  <si>
-    <t>sheet3질문임24</t>
-  </si>
-  <si>
-    <t>sheet3질문임25</t>
-  </si>
-  <si>
-    <t>sheet4질문임01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sheet4질문임02</t>
-  </si>
-  <si>
-    <t>sheet4질문임03</t>
-  </si>
-  <si>
-    <t>sheet4질문임04</t>
-  </si>
-  <si>
-    <t>sheet4질문임05</t>
-  </si>
-  <si>
-    <t>sheet4질문임06</t>
-  </si>
-  <si>
-    <t>sheet4질문임07</t>
-  </si>
-  <si>
-    <t>sheet4질문임08</t>
-  </si>
-  <si>
-    <t>sheet4질문임09</t>
-  </si>
-  <si>
-    <t>sheet4질문임10</t>
-  </si>
-  <si>
-    <t>sheet4질문임11</t>
-  </si>
-  <si>
-    <t>sheet4질문임12</t>
-  </si>
-  <si>
-    <t>sheet4질문임13</t>
-  </si>
-  <si>
-    <t>sheet4질문임14</t>
-  </si>
-  <si>
-    <t>sheet4질문임15</t>
-  </si>
-  <si>
-    <t>sheet4질문임16</t>
-  </si>
-  <si>
-    <t>sheet4질문임17</t>
-  </si>
-  <si>
-    <t>sheet4질문임18</t>
-  </si>
-  <si>
-    <t>sheet4질문임19</t>
-  </si>
-  <si>
-    <t>sheet4질문임20</t>
-  </si>
-  <si>
-    <t>sheet4질문임21</t>
-  </si>
-  <si>
-    <t>sheet4질문임22</t>
-  </si>
-  <si>
-    <t>sheet4질문임23</t>
-  </si>
-  <si>
-    <t>sheet4질문임24</t>
-  </si>
-  <si>
-    <t>sheet4질문임25</t>
-  </si>
-  <si>
     <t>sheet5질문임01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -943,13 +715,663 @@
   <si>
     <t>균형</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갑작스럽게 1시간의 여유시간이 생긴다면 무엇을 할것 같나요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어렸을 적 가장 호기심을 가졌던 분야가 뭔가요? 지금은 어떻게 생각하나요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24시간을 온전히 마음대로 사용할 수 있다면 어떻게 사용하고싶나요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일말고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당신이 세상에 영향력을 끼치고 있다고 생각되는 것은 어떤것인가요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영향력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당신이 생각하는 이상적인 연인의 모습은 어떤가요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당신과 데이트하면 가장 좋은것이 무엇이라고 생각하나요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인간관계에서 무엇을 가장 중요시 생각하고, 궁극적으로 무엇을 추구하나요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인간관계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중요도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>외로움에 어떻게 대처하나요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혼자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이성관계에 대해 조언을 구하는 대상이 있나요? 어떤 점때문에 그 대상에게 조언을 구하게되나요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조언</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>멘토</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당신이 생각하는 사랑에 대한 최고의 명언 혹은 조언이 있나요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소개팅, 데이팅 앱에 대한 당신의 생각을 듣고싶어요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>새로운</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만남</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가족을 제외하고 가장 오래 유지된 관계는 누구인가요? 무엇때문에 그렇게 유지했다고 생각하나요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가족을 제외하고 가장 짧게 끝난 관계는 누구인가요? 무엇때문에 그렇게 되었다고 생각하나요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>끝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사랑 없는 성관계가 가능한가요? 왜 그렇게 생각하나요? 솔직한 생각을 듣고싶어요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>없이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당신이 생각하는 로맨틱은 어떤 모습인가요? 상황, 모습 어떤것이든 좋아요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로맨틱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 누군가 사랑하고 있다는 것을 언제, 어떻게 알게되나요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>눈치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동거 경험이 있나요? 동거에 대해 어떻게 생각하나요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5년 뒤 당신은 어떤 모습인가요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가장 기대되는 미래가 있나요? 왜 기대되나요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가장 걱정되는 미래가 있나요? 왜 걱정되나요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가정이 생긴다면 어디에서 살고싶나요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이를 갖는것에 대해 생각해본적이 있나요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어떤 부모가 되고싶나요? 구체적인 이야기를 듣고싶어요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결혼하는 모습을 본 경험이 있나요? 어떤 생각을 했었나요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행하고싶은 나라가 있나요? 이미 가본 곳, 가보지 않은 곳 어디든 좋아요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 하는 일 외에 더 욕심나는 일이 있나요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당신이 생각하는 성관계란 어떤가요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>첫 관계는 언제였나요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후방주의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>풋풋함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남녀간 스킨십에 대해 어떻게 생각하나요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>녀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성적 판타지가 있나요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>환상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋아하는 연예인이 있나요? 왜 좋은가요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연인간 성적인 대화가 필요하다고 생각하나요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>살아오며 가장 큰 일탈은 어떤 것이었나요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>벗어남</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>침대에서 하지 않았으면 하는 것이 있나요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>존중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>처음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>느낌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>호감</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지금까지의 데이트 중 가장 기억에 남는 순간은 언제인가요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기억</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리에게 공통점이 있다고 생각하나요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꼭 가고싶은 데이트 장소가 있나요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연예인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정치인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유명인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지금까지 우리가 나눴던 대화 중 가장 기억에 남는 부분은 무엇인가요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>살아오며 후회되는 일이 있나요? 왜 그렇게 생각하나요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과거로 돌아간다면, 언제로 돌아가고싶나요? 왜 그때인가요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결혼할 준비가 되지 않았는데 임신이 됐다면 어떻게 하실건가요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남자와 여자 사이에 친구가 될 수 있다고 생각하나요? 왜 그렇게 생각하나요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이성관계를 이어가기 위해 절대 용납할 수 없는것은 무엇인가요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진지한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지속</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양가의 정치적 관점이 다르다면 어떻게 대처할건가요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양가의 종교적 관점이 다르다면 어떻게 대처할건가요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부모님</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리가 연인이 된 가장 큰 이유와 계기가 무엇이라고 생각하나요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신뢰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오래된 친구가 나(질문자)와 과거 연인관계였다는 것을 알게된다면?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왜 저와 만남을 지속하게 되었나요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제 첫 인상은 어땠나요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저에게 가장 마음에 드는 부분은 무엇인가요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제 부모님은 어떤 분들이라고 생각하나요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제가 동물이라면, 어떤 동물일것 같아요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저에게 가장 마음에 들지 않는 부분은 무엇인가요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저의 외모나 느낌이 닮은 유명인사가 있나요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저에게 묻고싶은것이 있나요? 지금 물어보면 무엇이든 대답해줄게요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저에게 엄청 많은 부채가 있다면 어떻게 할거에요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제가 불치병에 걸렸다면 어떻게 할건가요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제가 멀리 이사가게되면 어떻게 할건가요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바람피게되는 이유가 무엇이라고 생각해?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리가 관계를 지속할 수 있었던 원동력이 무엇이라고 생각해?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 갑자기 죽고싶다고 하면 뭐라고 할거야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 장기간 외국에 다녀와야한다면 기다려줄수있어?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거짓말 하고 클럽에 간 것을 들키면 어떻게 할거야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갑자기 헤어지자고 한다면 어떻게 할거야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 코스프레를 하고 나타난다면 어떻게 할거야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갑작스런</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 갑자기 유명인이 되면 어떻게 할거야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 아주 친한 친구를 만나지 말라고 하면 어떻게 할거야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 불의의 사고를 당해서 너를 기억하지 못하게 된다면 어떻게 할거야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 갑자기 거금이 필요하다고 빌려달라고 한다면 어떻게 할거야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">프로포즈에 대해 생각해본 적 있어? </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>너가 로또 1등에 당첨된다면 어떻게 할거야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알고보니 나에게 사실 자식이 있다면?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나를 가족에게 소개시켜줄 수 있어? 가족에 대해 알고있어야 할 부분이 있을까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>행운</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당신이 불치병에 걸렸다면 어떻게 할건가요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무엇이든 초능력 하나를 가질 수 있다면 어떤 초능력을 갖고싶어요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성형을 해도 누구도 눈치 채지 못한다면 어디를 고치고싶어요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현대의학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과거의 선택 중 단 한가지를 바꿀 수 있다면 어떤 선택을 바꾸고싶나요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방향</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>권태기가 온다면 어떻게 할거에요? 그 시기에 제가 해줬으면 하는게 있나요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>길을 가다가 현금 100만원이 든 지갑을 주우면 어떻게 하실거에요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리가 함께할 수 있는 시간이 단 하루뿐이라면 뭘 하고싶어?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하루</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해외여행을 가기로 하고 공항에서 만났는데 내가 여권을 두고왔다면!?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다시 태어나도 나를 만날거야? 왜 그렇게 생각했어?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이번생</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다음생</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알고보니 우리가 먼 친척관계였고 집안에서 만남을 반대한다면?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사주를 봤는데 우리가 절대 만나면 안되는 사주라고 하면 어떻게 할거야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리가 결혼했는데 아이가 생기지 않으면 어떻게 할거야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평생 그리던 이상형이 나타나서 자신과 만나자고 한다면 어떻게 할거야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이상형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>둘이서 인적이 없는 길을 가다가 불량해보이는 사람들이 시비를 건다면 어떻게 할거에요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위기대처</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행을 계획할 때 가장 중요하게 생각하는것이 뭐에요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>함께했던 시간 중 한 번 더 다시 하고싶은게 있어?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나랑 사귀게 된 결정적인 이유가 뭐야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업무적인 연락은 없다는 가정 하에 서로 휴대폰을 하루동안 바꿔서 쓸 수 있어요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리가 함께 찍은 사진을 프로필사진이나 sns에 올릴 수 있어요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 특정 커뮤니티의 우수회원이라면 어떻게 할거야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진정성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사랑</t>
+  </si>
+  <si>
+    <t>일상</t>
+  </si>
+  <si>
+    <t>가족</t>
+  </si>
+  <si>
+    <t>우정</t>
+  </si>
+  <si>
+    <t>결혼</t>
+  </si>
+  <si>
+    <t>기타</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -964,6 +1386,12 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -988,8 +1416,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1306,10 +1737,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{708975A4-0871-2C46-BBCD-E1DB3FAC6FA1}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1322,7 +1754,7 @@
         <v>19</v>
       </c>
       <c r="B1">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1352,63 +1784,63 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
+      <c r="B3" s="1" t="s">
+        <v>333</v>
       </c>
       <c r="C3">
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>204</v>
+        <v>129</v>
       </c>
       <c r="E3" t="s">
-        <v>134</v>
+        <v>59</v>
       </c>
       <c r="F3" t="s">
-        <v>205</v>
+        <v>130</v>
       </c>
       <c r="G3" t="s">
-        <v>130</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
+      <c r="B4" s="1" t="s">
+        <v>334</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>125</v>
+        <v>50</v>
       </c>
       <c r="E4" t="s">
-        <v>127</v>
+        <v>52</v>
       </c>
       <c r="F4" t="s">
-        <v>128</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>9</v>
+      <c r="B5" s="1" t="s">
+        <v>335</v>
       </c>
       <c r="C5">
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>212</v>
+        <v>137</v>
       </c>
       <c r="E5" t="s">
-        <v>134</v>
+        <v>59</v>
       </c>
       <c r="F5" t="s">
-        <v>213</v>
+        <v>138</v>
       </c>
       <c r="G5" t="s">
         <v>9</v>
@@ -1418,561 +1850,561 @@
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>20</v>
+      <c r="B6" s="1" t="s">
+        <v>336</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>202</v>
+        <v>127</v>
       </c>
       <c r="E6" t="s">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="F6" t="s">
-        <v>203</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>21</v>
+      <c r="B7" s="1" t="s">
+        <v>337</v>
       </c>
       <c r="C7">
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>209</v>
+        <v>134</v>
       </c>
       <c r="E7" t="s">
-        <v>210</v>
+        <v>135</v>
       </c>
       <c r="F7" t="s">
-        <v>174</v>
+        <v>99</v>
       </c>
       <c r="G7" t="s">
-        <v>211</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>22</v>
+      <c r="B8" s="1" t="s">
+        <v>338</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>129</v>
+        <v>54</v>
       </c>
       <c r="E8" t="s">
-        <v>130</v>
+        <v>55</v>
       </c>
       <c r="F8" t="s">
-        <v>131</v>
+        <v>56</v>
       </c>
       <c r="G8" t="s">
-        <v>132</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
-        <v>7</v>
+      <c r="B9" s="1" t="s">
+        <v>333</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>206</v>
+        <v>131</v>
       </c>
       <c r="E9" t="s">
         <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>207</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
-        <v>8</v>
+      <c r="B10" s="1" t="s">
+        <v>334</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="E10" t="s">
-        <v>134</v>
+        <v>59</v>
       </c>
       <c r="F10" t="s">
-        <v>137</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
-        <v>9</v>
+      <c r="B11" s="1" t="s">
+        <v>335</v>
       </c>
       <c r="C11">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>208</v>
+        <v>133</v>
       </c>
       <c r="E11" t="s">
-        <v>134</v>
+        <v>59</v>
       </c>
       <c r="F11" t="s">
         <v>9</v>
       </c>
       <c r="G11" t="s">
-        <v>130</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
-        <v>20</v>
+      <c r="B12" s="1" t="s">
+        <v>336</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>216</v>
+        <v>141</v>
       </c>
       <c r="E12" t="s">
-        <v>126</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
-        <v>21</v>
+      <c r="B13" s="1" t="s">
+        <v>337</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>217</v>
+        <v>142</v>
       </c>
       <c r="E13" t="s">
-        <v>218</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
-        <v>22</v>
+      <c r="B14" s="1" t="s">
+        <v>338</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>138</v>
+        <v>63</v>
       </c>
       <c r="E14" t="s">
-        <v>139</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
-        <v>7</v>
+      <c r="B15" s="1" t="s">
+        <v>333</v>
       </c>
       <c r="C15">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>219</v>
+        <v>144</v>
       </c>
       <c r="E15" t="s">
-        <v>218</v>
+        <v>143</v>
       </c>
       <c r="F15" t="s">
-        <v>220</v>
+        <v>145</v>
       </c>
       <c r="G15" t="s">
-        <v>190</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
-        <v>8</v>
+      <c r="B16" s="1" t="s">
+        <v>334</v>
       </c>
       <c r="C16">
         <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>140</v>
+        <v>65</v>
       </c>
       <c r="E16" t="s">
-        <v>134</v>
+        <v>59</v>
       </c>
       <c r="F16" t="s">
-        <v>141</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
-        <v>9</v>
+      <c r="B17" s="1" t="s">
+        <v>335</v>
       </c>
       <c r="C17">
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>133</v>
+        <v>58</v>
       </c>
       <c r="E17" t="s">
-        <v>135</v>
+        <v>60</v>
       </c>
       <c r="F17" t="s">
-        <v>134</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
-        <v>20</v>
+      <c r="B18" s="1" t="s">
+        <v>336</v>
       </c>
       <c r="C18">
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>223</v>
+        <v>148</v>
       </c>
       <c r="E18" t="s">
-        <v>221</v>
+        <v>146</v>
       </c>
       <c r="F18" t="s">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="G18" t="s">
-        <v>222</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
         <v>17</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>219</v>
+      </c>
+      <c r="E19" t="s">
         <v>21</v>
       </c>
-      <c r="C19">
-        <v>2</v>
-      </c>
-      <c r="D19" t="s">
-        <v>214</v>
-      </c>
-      <c r="E19" t="s">
-        <v>215</v>
-      </c>
       <c r="F19" t="s">
-        <v>134</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
-        <v>22</v>
+      <c r="B20" s="1" t="s">
+        <v>338</v>
       </c>
       <c r="C20">
         <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>142</v>
+        <v>67</v>
       </c>
       <c r="E20" t="s">
-        <v>143</v>
+        <v>68</v>
       </c>
       <c r="F20" t="s">
-        <v>139</v>
+        <v>64</v>
       </c>
       <c r="G20" t="s">
-        <v>131</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
-        <v>7</v>
+      <c r="B21" s="1" t="s">
+        <v>333</v>
       </c>
       <c r="C21">
         <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>224</v>
+        <v>149</v>
       </c>
       <c r="E21" t="s">
-        <v>225</v>
+        <v>150</v>
       </c>
       <c r="F21" t="s">
-        <v>226</v>
+        <v>151</v>
       </c>
       <c r="G21" t="s">
-        <v>227</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
         <v>20</v>
       </c>
-      <c r="B22" t="s">
-        <v>8</v>
+      <c r="B22" s="1" t="s">
+        <v>334</v>
       </c>
       <c r="C22">
         <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>144</v>
+        <v>69</v>
       </c>
       <c r="E22" t="s">
-        <v>145</v>
+        <v>70</v>
       </c>
       <c r="F22" t="s">
-        <v>147</v>
+        <v>72</v>
       </c>
       <c r="G22" t="s">
-        <v>146</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23">
         <v>21</v>
       </c>
-      <c r="B23" t="s">
-        <v>8</v>
+      <c r="B23" s="1" t="s">
+        <v>334</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="E23" t="s">
-        <v>149</v>
+        <v>74</v>
       </c>
       <c r="F23" t="s">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="G23" t="s">
-        <v>151</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24">
         <v>22</v>
       </c>
-      <c r="B24" t="s">
-        <v>8</v>
+      <c r="B24" s="1" t="s">
+        <v>334</v>
       </c>
       <c r="C24">
         <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>152</v>
+        <v>77</v>
       </c>
       <c r="E24" t="s">
-        <v>153</v>
+        <v>78</v>
       </c>
       <c r="F24" t="s">
-        <v>154</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
-        <v>8</v>
+      <c r="B25" s="1" t="s">
+        <v>334</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>155</v>
+        <v>80</v>
       </c>
       <c r="E25" t="s">
-        <v>156</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26">
         <v>24</v>
       </c>
-      <c r="B26" t="s">
-        <v>8</v>
+      <c r="B26" s="1" t="s">
+        <v>334</v>
       </c>
       <c r="C26">
         <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>157</v>
+        <v>82</v>
       </c>
       <c r="E26" t="s">
-        <v>159</v>
+        <v>84</v>
       </c>
       <c r="F26" t="s">
-        <v>158</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27">
         <v>25</v>
       </c>
-      <c r="B27" t="s">
-        <v>8</v>
+      <c r="B27" s="1" t="s">
+        <v>334</v>
       </c>
       <c r="C27">
         <v>3</v>
       </c>
       <c r="D27" t="s">
-        <v>160</v>
+        <v>85</v>
       </c>
       <c r="E27" t="s">
-        <v>158</v>
+        <v>83</v>
       </c>
       <c r="F27" t="s">
-        <v>161</v>
+        <v>86</v>
       </c>
       <c r="G27" t="s">
-        <v>162</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28">
         <v>26</v>
       </c>
-      <c r="B28" t="s">
-        <v>22</v>
+      <c r="B28" s="1" t="s">
+        <v>338</v>
       </c>
       <c r="C28">
         <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>163</v>
+        <v>88</v>
       </c>
       <c r="E28" t="s">
-        <v>158</v>
+        <v>83</v>
       </c>
       <c r="F28" t="s">
-        <v>164</v>
+        <v>89</v>
       </c>
       <c r="G28" t="s">
-        <v>165</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29">
         <v>27</v>
       </c>
-      <c r="B29" t="s">
-        <v>22</v>
+      <c r="B29" s="1" t="s">
+        <v>338</v>
       </c>
       <c r="C29">
         <v>3</v>
       </c>
       <c r="D29" t="s">
-        <v>166</v>
+        <v>91</v>
       </c>
       <c r="E29" t="s">
-        <v>167</v>
+        <v>92</v>
       </c>
       <c r="F29" t="s">
-        <v>134</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30">
         <v>28</v>
       </c>
-      <c r="B30" t="s">
-        <v>8</v>
+      <c r="B30" s="1" t="s">
+        <v>334</v>
       </c>
       <c r="C30">
         <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>168</v>
+        <v>93</v>
       </c>
       <c r="E30" t="s">
-        <v>161</v>
+        <v>86</v>
       </c>
       <c r="F30" t="s">
-        <v>169</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31">
         <v>29</v>
       </c>
-      <c r="B31" t="s">
-        <v>170</v>
+      <c r="B31" s="1" t="s">
+        <v>334</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>171</v>
+        <v>96</v>
       </c>
       <c r="E31" t="s">
-        <v>172</v>
+        <v>97</v>
       </c>
       <c r="F31" t="s">
-        <v>173</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32">
         <v>30</v>
       </c>
-      <c r="B32" t="s">
-        <v>22</v>
+      <c r="B32" s="1" t="s">
+        <v>338</v>
       </c>
       <c r="C32">
         <v>3</v>
       </c>
       <c r="D32" t="s">
-        <v>199</v>
+        <v>124</v>
       </c>
       <c r="E32" t="s">
-        <v>164</v>
+        <v>89</v>
       </c>
       <c r="F32" t="s">
-        <v>174</v>
+        <v>99</v>
       </c>
       <c r="G32" t="s">
         <v>8</v>
@@ -1982,418 +2414,415 @@
       <c r="A33">
         <v>31</v>
       </c>
-      <c r="B33" t="s">
-        <v>8</v>
+      <c r="B33" s="1" t="s">
+        <v>334</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>200</v>
+        <v>125</v>
       </c>
       <c r="E33" t="s">
-        <v>161</v>
+        <v>86</v>
       </c>
       <c r="F33" t="s">
-        <v>175</v>
+        <v>100</v>
       </c>
       <c r="G33" t="s">
-        <v>176</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34">
         <v>32</v>
       </c>
-      <c r="B34" t="s">
-        <v>8</v>
+      <c r="B34" s="1" t="s">
+        <v>334</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>198</v>
+        <v>123</v>
       </c>
       <c r="E34" t="s">
-        <v>177</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35">
         <v>33</v>
       </c>
-      <c r="B35" t="s">
-        <v>170</v>
+      <c r="B35" s="1" t="s">
+        <v>334</v>
       </c>
       <c r="C35">
         <v>3</v>
       </c>
       <c r="D35" t="s">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="E35" t="s">
-        <v>134</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36">
         <v>34</v>
       </c>
-      <c r="B36" t="s">
-        <v>8</v>
+      <c r="B36" s="1" t="s">
+        <v>334</v>
       </c>
       <c r="C36">
         <v>2</v>
       </c>
       <c r="D36" t="s">
-        <v>178</v>
+        <v>103</v>
       </c>
       <c r="E36" t="s">
-        <v>179</v>
+        <v>104</v>
       </c>
       <c r="F36" t="s">
-        <v>180</v>
+        <v>105</v>
       </c>
       <c r="G36" t="s">
-        <v>181</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37">
         <v>35</v>
       </c>
-      <c r="B37" t="s">
-        <v>22</v>
+      <c r="B37" s="1" t="s">
+        <v>338</v>
       </c>
       <c r="C37">
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>182</v>
+        <v>107</v>
       </c>
       <c r="E37" t="s">
-        <v>183</v>
+        <v>108</v>
       </c>
       <c r="F37" t="s">
-        <v>184</v>
+        <v>109</v>
       </c>
       <c r="G37" t="s">
-        <v>185</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38">
         <v>36</v>
       </c>
-      <c r="B38" t="s">
-        <v>170</v>
+      <c r="B38" s="1" t="s">
+        <v>338</v>
       </c>
       <c r="C38">
         <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>186</v>
+        <v>111</v>
       </c>
       <c r="E38" t="s">
-        <v>187</v>
+        <v>112</v>
       </c>
       <c r="F38" t="s">
-        <v>188</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39">
         <v>37</v>
       </c>
-      <c r="B39" t="s">
-        <v>170</v>
+      <c r="B39" s="1" t="s">
+        <v>338</v>
       </c>
       <c r="C39">
         <v>3</v>
       </c>
       <c r="D39" t="s">
-        <v>189</v>
+        <v>114</v>
       </c>
       <c r="E39" t="s">
-        <v>190</v>
+        <v>115</v>
       </c>
       <c r="F39" t="s">
-        <v>188</v>
+        <v>113</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40">
         <v>38</v>
       </c>
-      <c r="B40" t="s">
-        <v>170</v>
+      <c r="B40" s="1" t="s">
+        <v>338</v>
       </c>
       <c r="C40">
         <v>3</v>
       </c>
       <c r="D40" t="s">
-        <v>191</v>
+        <v>116</v>
       </c>
       <c r="E40" t="s">
-        <v>134</v>
+        <v>59</v>
       </c>
       <c r="F40" t="s">
-        <v>188</v>
+        <v>113</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41">
         <v>39</v>
       </c>
-      <c r="B41" t="s">
-        <v>22</v>
+      <c r="B41" s="1" t="s">
+        <v>338</v>
       </c>
       <c r="C41">
         <v>3</v>
       </c>
       <c r="D41" t="s">
-        <v>193</v>
+        <v>118</v>
       </c>
       <c r="E41" t="s">
-        <v>134</v>
+        <v>59</v>
       </c>
       <c r="F41" t="s">
-        <v>192</v>
+        <v>117</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42">
         <v>40</v>
       </c>
-      <c r="B42" t="s">
-        <v>22</v>
+      <c r="B42" s="1" t="s">
+        <v>338</v>
       </c>
       <c r="C42">
         <v>4</v>
       </c>
       <c r="D42" t="s">
-        <v>194</v>
+        <v>119</v>
       </c>
       <c r="E42" t="s">
-        <v>195</v>
+        <v>120</v>
       </c>
       <c r="F42" t="s">
-        <v>196</v>
+        <v>121</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43">
         <v>41</v>
       </c>
-      <c r="B43" t="s">
-        <v>20</v>
+      <c r="B43" s="1" t="s">
+        <v>336</v>
       </c>
       <c r="C43">
         <v>4</v>
       </c>
       <c r="D43" t="s">
-        <v>197</v>
+        <v>122</v>
       </c>
       <c r="E43" t="s">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="F43" t="s">
-        <v>134</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44">
         <v>42</v>
       </c>
-      <c r="B44" t="s">
-        <v>8</v>
+      <c r="B44" s="1" t="s">
+        <v>334</v>
       </c>
       <c r="C44">
         <v>2</v>
       </c>
       <c r="D44" t="s">
-        <v>228</v>
+        <v>153</v>
       </c>
       <c r="E44" t="s">
-        <v>229</v>
+        <v>154</v>
       </c>
       <c r="F44" t="s">
-        <v>230</v>
+        <v>155</v>
       </c>
       <c r="G44" t="s">
-        <v>231</v>
+        <v>156</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45">
         <v>43</v>
       </c>
-      <c r="B45" t="s">
-        <v>22</v>
+      <c r="B45" s="1" t="s">
+        <v>338</v>
       </c>
       <c r="C45">
         <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>232</v>
+        <v>157</v>
       </c>
       <c r="E45" t="s">
-        <v>233</v>
+        <v>158</v>
       </c>
       <c r="F45" t="s">
-        <v>231</v>
+        <v>156</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46">
         <v>44</v>
       </c>
-      <c r="B46" t="s">
-        <v>7</v>
+      <c r="B46" s="1" t="s">
+        <v>333</v>
       </c>
       <c r="C46">
         <v>3</v>
       </c>
       <c r="D46" t="s">
-        <v>234</v>
+        <v>159</v>
       </c>
       <c r="E46" t="s">
-        <v>235</v>
+        <v>160</v>
       </c>
       <c r="F46" t="s">
-        <v>236</v>
+        <v>161</v>
       </c>
       <c r="G46" t="s">
-        <v>237</v>
+        <v>162</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47">
         <v>45</v>
       </c>
-      <c r="B47" t="s">
-        <v>20</v>
+      <c r="B47" s="1" t="s">
+        <v>336</v>
       </c>
       <c r="C47">
         <v>2</v>
       </c>
       <c r="D47" t="s">
-        <v>238</v>
+        <v>163</v>
       </c>
       <c r="E47" t="s">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="F47" t="s">
-        <v>239</v>
+        <v>164</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48">
         <v>46</v>
       </c>
-      <c r="B48" t="s">
-        <v>170</v>
+      <c r="B48" s="1" t="s">
+        <v>333</v>
       </c>
       <c r="C48">
         <v>4</v>
       </c>
       <c r="D48" t="s">
-        <v>240</v>
+        <v>165</v>
       </c>
       <c r="E48" t="s">
-        <v>242</v>
+        <v>167</v>
       </c>
       <c r="F48" t="s">
-        <v>241</v>
+        <v>166</v>
       </c>
       <c r="G48" t="s">
-        <v>243</v>
+        <v>168</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49">
         <v>47</v>
       </c>
-      <c r="B49" t="s">
-        <v>22</v>
+      <c r="B49" s="1" t="s">
+        <v>338</v>
       </c>
       <c r="C49">
         <v>3</v>
       </c>
       <c r="D49" t="s">
-        <v>244</v>
+        <v>169</v>
       </c>
       <c r="E49" t="s">
-        <v>134</v>
+        <v>59</v>
       </c>
       <c r="F49" t="s">
-        <v>237</v>
+        <v>162</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50">
         <v>48</v>
       </c>
-      <c r="B50" t="s">
-        <v>8</v>
+      <c r="B50" s="1" t="s">
+        <v>334</v>
       </c>
       <c r="C50">
         <v>1</v>
       </c>
       <c r="D50" t="s">
-        <v>245</v>
+        <v>170</v>
       </c>
       <c r="E50" t="s">
-        <v>246</v>
+        <v>171</v>
       </c>
       <c r="F50" t="s">
-        <v>143</v>
+        <v>68</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51">
         <v>49</v>
       </c>
-      <c r="B51" t="s">
-        <v>8</v>
+      <c r="B51" s="1" t="s">
+        <v>334</v>
       </c>
       <c r="C51">
         <v>2</v>
       </c>
       <c r="D51" t="s">
-        <v>247</v>
+        <v>172</v>
       </c>
       <c r="E51" t="s">
-        <v>134</v>
+        <v>59</v>
       </c>
       <c r="F51" t="s">
         <v>8</v>
       </c>
       <c r="G51" t="s">
-        <v>149</v>
+        <v>74</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52">
         <v>50</v>
       </c>
-      <c r="B52" t="s">
-        <v>21</v>
+      <c r="B52" s="1" t="s">
+        <v>338</v>
       </c>
       <c r="C52">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D52" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="E52" t="s">
-        <v>195</v>
+        <v>59</v>
       </c>
       <c r="F52" t="s">
-        <v>249</v>
-      </c>
-      <c r="G52" t="s">
-        <v>231</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -2405,10 +2834,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4EF3487-191B-E442-971D-A866A8A7DD66}">
-  <dimension ref="A1:G27"/>
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -2421,7 +2851,7 @@
         <v>19</v>
       </c>
       <c r="B1">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2455,19 +2885,16 @@
         <v>22</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>175</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>176</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2475,22 +2902,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>178</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>164</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2501,19 +2928,19 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>179</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>180</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2521,16 +2948,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>181</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>182</v>
+      </c>
+      <c r="F6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2538,19 +2971,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C7">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>184</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>177</v>
+      </c>
+      <c r="G7" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2558,22 +2994,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>186</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
+        <v>187</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2587,10 +3023,16 @@
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>188</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>59</v>
+      </c>
+      <c r="F9" t="s">
+        <v>189</v>
+      </c>
+      <c r="G9" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2601,16 +3043,16 @@
         <v>7</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>191</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="F10" t="s">
-        <v>23</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2618,22 +3060,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>193</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>194</v>
       </c>
       <c r="F11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" t="s">
-        <v>24</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2641,16 +3080,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>196</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="F12" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2658,19 +3100,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>35</v>
+        <v>197</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>177</v>
       </c>
       <c r="F13" t="s">
-        <v>23</v>
+        <v>198</v>
+      </c>
+      <c r="G13" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2678,22 +3123,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>36</v>
+        <v>200</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>201</v>
       </c>
       <c r="F14" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" t="s">
-        <v>24</v>
+        <v>202</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2704,13 +3146,16 @@
         <v>22</v>
       </c>
       <c r="C15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>37</v>
+        <v>203</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>201</v>
+      </c>
+      <c r="F15" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2721,16 +3166,16 @@
         <v>7</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>38</v>
+        <v>205</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F16" t="s">
-        <v>23</v>
+        <v>206</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2738,22 +3183,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>39</v>
+        <v>207</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="F17" t="s">
-        <v>23</v>
+        <v>177</v>
       </c>
       <c r="G17" t="s">
-        <v>24</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2761,16 +3206,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>40</v>
+        <v>209</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="F18" t="s">
+        <v>59</v>
+      </c>
+      <c r="G18" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2778,19 +3229,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>41</v>
+        <v>211</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="F19" t="s">
-        <v>23</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2798,22 +3249,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C20">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>42</v>
+        <v>212</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="F20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G20" t="s">
-        <v>24</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2821,16 +3269,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>43</v>
+        <v>213</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>140</v>
+      </c>
+      <c r="F21" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2844,13 +3295,13 @@
         <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>44</v>
+        <v>215</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>140</v>
       </c>
       <c r="F22" t="s">
-        <v>23</v>
+        <v>177</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2858,16 +3309,19 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>45</v>
+        <v>216</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>140</v>
+      </c>
+      <c r="F23" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2878,16 +3332,16 @@
         <v>9</v>
       </c>
       <c r="C24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24" t="s">
-        <v>46</v>
+        <v>217</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>140</v>
       </c>
       <c r="F24" t="s">
-        <v>23</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2895,22 +3349,19 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C25">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>47</v>
+        <v>218</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>140</v>
       </c>
       <c r="F25" t="s">
-        <v>23</v>
-      </c>
-      <c r="G25" t="s">
-        <v>24</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2921,13 +3372,16 @@
         <v>21</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>48</v>
+        <v>139</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>140</v>
+      </c>
+      <c r="F26" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2941,13 +3395,125 @@
         <v>3</v>
       </c>
       <c r="D27" t="s">
-        <v>49</v>
+        <v>221</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="F27" t="s">
-        <v>23</v>
+        <v>214</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28">
+        <v>4</v>
+      </c>
+      <c r="D28" t="s">
+        <v>222</v>
+      </c>
+      <c r="E28" t="s">
+        <v>59</v>
+      </c>
+      <c r="F28" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29">
+        <v>4</v>
+      </c>
+      <c r="D29" t="s">
+        <v>228</v>
+      </c>
+      <c r="E29" t="s">
+        <v>229</v>
+      </c>
+      <c r="F29" t="s">
+        <v>230</v>
+      </c>
+      <c r="G29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30">
+        <v>4</v>
+      </c>
+      <c r="D30" t="s">
+        <v>173</v>
+      </c>
+      <c r="E30" t="s">
+        <v>120</v>
+      </c>
+      <c r="F30" t="s">
+        <v>174</v>
+      </c>
+      <c r="G30" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="D31" t="s">
+        <v>259</v>
+      </c>
+      <c r="E31" t="s">
+        <v>229</v>
+      </c>
+      <c r="F31" t="s">
+        <v>230</v>
+      </c>
+      <c r="G31" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32" t="s">
+        <v>260</v>
+      </c>
+      <c r="E32" t="s">
+        <v>261</v>
+      </c>
+      <c r="F32" t="s">
+        <v>201</v>
+      </c>
+      <c r="G32" t="s">
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -2958,10 +3524,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B07DD3DD-2181-2741-B4E7-201468BCB199}">
-  <dimension ref="A1:G27"/>
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -2974,7 +3541,7 @@
         <v>19</v>
       </c>
       <c r="B1">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3005,22 +3572,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>223</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>226</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>224</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3031,19 +3598,19 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>225</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>226</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>164</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -3051,22 +3618,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>52</v>
+        <v>231</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" t="s">
-        <v>18</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -3074,16 +3638,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C6">
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>53</v>
+        <v>234</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>185</v>
+      </c>
+      <c r="F6" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -3091,19 +3658,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C7">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
+        <v>236</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>8</v>
+      </c>
+      <c r="G7" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3111,22 +3681,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
+        <v>238</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
+        <v>239</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -3137,13 +3707,16 @@
         <v>22</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>56</v>
+        <v>270</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>240</v>
+      </c>
+      <c r="F9" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -3151,19 +3724,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>57</v>
+        <v>271</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" t="s">
-        <v>23</v>
+        <v>242</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -3171,22 +3741,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>58</v>
+        <v>272</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" t="s">
-        <v>24</v>
+        <v>241</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -3194,16 +3761,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>59</v>
+        <v>269</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>242</v>
+      </c>
+      <c r="F12" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -3211,19 +3781,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>60</v>
+        <v>273</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>241</v>
       </c>
       <c r="F13" t="s">
-        <v>23</v>
+        <v>243</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -3231,22 +3801,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>61</v>
+        <v>274</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>244</v>
       </c>
       <c r="F14" t="s">
-        <v>23</v>
+        <v>95</v>
       </c>
       <c r="G14" t="s">
-        <v>24</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -3254,16 +3824,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>62</v>
+        <v>245</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>187</v>
+      </c>
+      <c r="F15" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3271,19 +3844,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>63</v>
+        <v>247</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="F16" t="s">
-        <v>23</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -3294,19 +3867,13 @@
         <v>7</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>64</v>
+        <v>248</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" t="s">
-        <v>24</v>
+        <v>249</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3314,16 +3881,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C18">
         <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>65</v>
+        <v>275</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>250</v>
+      </c>
+      <c r="F18" t="s">
+        <v>251</v>
+      </c>
+      <c r="G18" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3331,19 +3904,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C19">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>66</v>
+        <v>253</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>235</v>
       </c>
       <c r="F19" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3351,22 +3924,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C20">
         <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>67</v>
+        <v>276</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G20" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3374,16 +3941,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>68</v>
+        <v>277</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>59</v>
+      </c>
+      <c r="F21" t="s">
+        <v>255</v>
+      </c>
+      <c r="G21" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3397,13 +3970,13 @@
         <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>69</v>
+        <v>256</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="F22" t="s">
-        <v>23</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3411,16 +3984,19 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" t="s">
-        <v>70</v>
+        <v>257</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>59</v>
+      </c>
+      <c r="F23" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3428,19 +4004,19 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C24">
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>71</v>
+        <v>258</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F24" t="s">
-        <v>23</v>
+        <v>255</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3448,22 +4024,19 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C25">
         <v>5</v>
       </c>
       <c r="D25" t="s">
-        <v>72</v>
+        <v>263</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>265</v>
       </c>
       <c r="F25" t="s">
-        <v>23</v>
-      </c>
-      <c r="G25" t="s">
-        <v>24</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3471,16 +4044,19 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D26" t="s">
-        <v>73</v>
+        <v>264</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>265</v>
+      </c>
+      <c r="F26" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3488,33 +4064,313 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27" t="s">
+        <v>266</v>
+      </c>
+      <c r="E27" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" t="s">
+        <v>130</v>
+      </c>
+      <c r="G27" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28">
+        <v>5</v>
+      </c>
+      <c r="D28" t="s">
+        <v>268</v>
+      </c>
+      <c r="E28" t="s">
+        <v>164</v>
+      </c>
+      <c r="F28" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29">
+        <v>5</v>
+      </c>
+      <c r="D29" t="s">
+        <v>278</v>
+      </c>
+      <c r="E29" t="s">
+        <v>59</v>
+      </c>
+      <c r="F29" t="s">
+        <v>130</v>
+      </c>
+      <c r="G29" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30">
+        <v>4</v>
+      </c>
+      <c r="D30" t="s">
+        <v>279</v>
+      </c>
+      <c r="E30" t="s">
+        <v>280</v>
+      </c>
+      <c r="F30" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31">
+        <v>5</v>
+      </c>
+      <c r="D31" t="s">
+        <v>301</v>
+      </c>
+      <c r="E31" t="s">
+        <v>59</v>
+      </c>
+      <c r="F31" t="s">
+        <v>130</v>
+      </c>
+      <c r="G31" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
         <v>22</v>
       </c>
-      <c r="C27">
-        <v>3</v>
-      </c>
-      <c r="D27" t="s">
-        <v>74</v>
-      </c>
-      <c r="E27" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" t="s">
-        <v>23</v>
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32" t="s">
+        <v>302</v>
+      </c>
+      <c r="E32" t="s">
+        <v>130</v>
+      </c>
+      <c r="F32" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33" t="s">
+        <v>304</v>
+      </c>
+      <c r="E33" t="s">
+        <v>130</v>
+      </c>
+      <c r="F33" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34">
+        <v>4</v>
+      </c>
+      <c r="D34" t="s">
+        <v>306</v>
+      </c>
+      <c r="E34" t="s">
+        <v>130</v>
+      </c>
+      <c r="F34" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35">
+        <v>4</v>
+      </c>
+      <c r="D35" t="s">
+        <v>308</v>
+      </c>
+      <c r="E35" t="s">
+        <v>59</v>
+      </c>
+      <c r="F35" t="s">
+        <v>130</v>
+      </c>
+      <c r="G35" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+      <c r="D36" t="s">
+        <v>309</v>
+      </c>
+      <c r="E36" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37">
+        <v>4</v>
+      </c>
+      <c r="D37" t="s">
+        <v>323</v>
+      </c>
+      <c r="E37" t="s">
+        <v>55</v>
+      </c>
+      <c r="F37" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38">
+        <v>3</v>
+      </c>
+      <c r="D38" t="s">
+        <v>325</v>
+      </c>
+      <c r="E38" t="s">
+        <v>78</v>
+      </c>
+      <c r="F38" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39">
+        <v>4</v>
+      </c>
+      <c r="D39" t="s">
+        <v>328</v>
+      </c>
+      <c r="E39" t="s">
+        <v>59</v>
+      </c>
+      <c r="F39" t="s">
+        <v>130</v>
+      </c>
+      <c r="G39" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="D40" t="s">
+        <v>329</v>
+      </c>
+      <c r="E40" t="s">
+        <v>59</v>
+      </c>
+      <c r="F40" t="s">
+        <v>130</v>
+      </c>
+      <c r="G40" t="s">
+        <v>330</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE858A25-324C-CF44-B701-061C792A32CA}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -3527,7 +4383,7 @@
         <v>19</v>
       </c>
       <c r="B1">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3558,22 +4414,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>75</v>
+        <v>281</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>130</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>254</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3584,19 +4440,19 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>76</v>
+        <v>298</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>130</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -3604,22 +4460,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>77</v>
+        <v>282</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>130</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -3633,10 +4489,16 @@
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>78</v>
+        <v>299</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>59</v>
+      </c>
+      <c r="F6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -3644,19 +4506,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>79</v>
+        <v>283</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3664,22 +4526,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>80</v>
+        <v>284</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" t="s">
-        <v>24</v>
+        <v>291</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -3687,16 +4546,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>81</v>
+        <v>285</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>59</v>
+      </c>
+      <c r="F9" t="s">
+        <v>130</v>
+      </c>
+      <c r="G9" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -3707,16 +4572,19 @@
         <v>7</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>82</v>
+        <v>286</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="F10" t="s">
-        <v>23</v>
+        <v>130</v>
+      </c>
+      <c r="G10" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -3724,22 +4592,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>83</v>
+        <v>287</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="F11" t="s">
-        <v>23</v>
+        <v>288</v>
       </c>
       <c r="G11" t="s">
-        <v>24</v>
+        <v>289</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -3747,16 +4615,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>84</v>
+        <v>290</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>59</v>
+      </c>
+      <c r="F12" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -3770,13 +4641,13 @@
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>85</v>
+        <v>292</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="F13" t="s">
-        <v>23</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -3784,22 +4655,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C14">
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>86</v>
+        <v>293</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="F14" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" t="s">
-        <v>24</v>
+        <v>291</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -3810,13 +4678,19 @@
         <v>22</v>
       </c>
       <c r="C15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>87</v>
+        <v>294</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>59</v>
+      </c>
+      <c r="F15" t="s">
+        <v>291</v>
+      </c>
+      <c r="G15" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3827,16 +4701,19 @@
         <v>7</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>88</v>
+        <v>296</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="F16" t="s">
-        <v>23</v>
+        <v>130</v>
+      </c>
+      <c r="G16" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -3844,22 +4721,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>89</v>
+        <v>297</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="F17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" t="s">
-        <v>24</v>
+        <v>300</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3867,16 +4741,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>90</v>
+        <v>311</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>59</v>
+      </c>
+      <c r="F18" t="s">
+        <v>130</v>
+      </c>
+      <c r="G18" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3884,19 +4764,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" t="s">
-        <v>91</v>
+        <v>313</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="F19" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3904,22 +4784,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C20">
         <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>92</v>
+        <v>314</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>315</v>
       </c>
       <c r="F20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G20" t="s">
-        <v>24</v>
+        <v>316</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3927,16 +4804,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>93</v>
+        <v>317</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>59</v>
+      </c>
+      <c r="F21" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3950,13 +4830,16 @@
         <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>94</v>
+        <v>318</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>156</v>
       </c>
       <c r="F22" t="s">
-        <v>23</v>
+        <v>59</v>
+      </c>
+      <c r="G22" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3964,16 +4847,19 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23">
         <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>95</v>
+        <v>319</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>21</v>
+      </c>
+      <c r="F23" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3981,19 +4867,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>96</v>
+        <v>321</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" t="s">
-        <v>23</v>
+        <v>322</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -4001,22 +4884,19 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C25">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="s">
-        <v>97</v>
+        <v>326</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="F25" t="s">
-        <v>23</v>
-      </c>
-      <c r="G25" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -4024,16 +4904,19 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>98</v>
+        <v>327</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>55</v>
+      </c>
+      <c r="F26" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -4044,16 +4927,19 @@
         <v>22</v>
       </c>
       <c r="C27">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="s">
-        <v>99</v>
+        <v>331</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>332</v>
       </c>
       <c r="F27" t="s">
-        <v>23</v>
+        <v>59</v>
+      </c>
+      <c r="G27" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -4064,10 +4950,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91EE424D-F85C-8144-BFC7-4EBC8725A349}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="A1:G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -4117,7 +5004,7 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -4140,7 +5027,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -4163,7 +5050,7 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>102</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
         <v>16</v>
@@ -4186,7 +5073,7 @@
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>103</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
@@ -4203,7 +5090,7 @@
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>104</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
@@ -4223,7 +5110,7 @@
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>105</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
@@ -4246,7 +5133,7 @@
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>106</v>
+        <v>31</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
@@ -4263,7 +5150,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>107</v>
+        <v>32</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
@@ -4283,7 +5170,7 @@
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>108</v>
+        <v>33</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
@@ -4306,7 +5193,7 @@
         <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>109</v>
+        <v>34</v>
       </c>
       <c r="E12" t="s">
         <v>10</v>
@@ -4323,7 +5210,7 @@
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>110</v>
+        <v>35</v>
       </c>
       <c r="E13" t="s">
         <v>10</v>
@@ -4343,7 +5230,7 @@
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>111</v>
+        <v>36</v>
       </c>
       <c r="E14" t="s">
         <v>10</v>
@@ -4366,7 +5253,7 @@
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>112</v>
+        <v>37</v>
       </c>
       <c r="E15" t="s">
         <v>10</v>
@@ -4383,7 +5270,7 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>113</v>
+        <v>38</v>
       </c>
       <c r="E16" t="s">
         <v>10</v>
@@ -4403,7 +5290,7 @@
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>114</v>
+        <v>39</v>
       </c>
       <c r="E17" t="s">
         <v>10</v>
@@ -4426,7 +5313,7 @@
         <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>115</v>
+        <v>40</v>
       </c>
       <c r="E18" t="s">
         <v>10</v>
@@ -4443,7 +5330,7 @@
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>116</v>
+        <v>41</v>
       </c>
       <c r="E19" t="s">
         <v>10</v>
@@ -4463,7 +5350,7 @@
         <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>117</v>
+        <v>42</v>
       </c>
       <c r="E20" t="s">
         <v>10</v>
@@ -4486,7 +5373,7 @@
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>118</v>
+        <v>43</v>
       </c>
       <c r="E21" t="s">
         <v>10</v>
@@ -4503,7 +5390,7 @@
         <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>119</v>
+        <v>44</v>
       </c>
       <c r="E22" t="s">
         <v>10</v>
@@ -4523,7 +5410,7 @@
         <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>120</v>
+        <v>45</v>
       </c>
       <c r="E23" t="s">
         <v>10</v>
@@ -4540,7 +5427,7 @@
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>121</v>
+        <v>46</v>
       </c>
       <c r="E24" t="s">
         <v>10</v>
@@ -4560,7 +5447,7 @@
         <v>5</v>
       </c>
       <c r="D25" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="E25" t="s">
         <v>10</v>
@@ -4583,7 +5470,7 @@
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>123</v>
+        <v>48</v>
       </c>
       <c r="E26" t="s">
         <v>10</v>
@@ -4600,7 +5487,7 @@
         <v>3</v>
       </c>
       <c r="D27" t="s">
-        <v>124</v>
+        <v>49</v>
       </c>
       <c r="E27" t="s">
         <v>10</v>

--- a/assets/data/asking_data.xlsx
+++ b/assets/data/asking_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/w/Desktop/coding/codes/meetqa/meetqa/assets/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB345692-3346-7649-AF82-766BEE3E7932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0C3D23E-908E-514F-A1DE-517B7FBEE803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{221ABC66-D7D2-C840-A7BD-9A2356AA9BC1}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="333">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1347,31 +1347,13 @@
   <si>
     <t>진정성</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사랑</t>
-  </si>
-  <si>
-    <t>일상</t>
-  </si>
-  <si>
-    <t>가족</t>
-  </si>
-  <si>
-    <t>우정</t>
-  </si>
-  <si>
-    <t>결혼</t>
-  </si>
-  <si>
-    <t>기타</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1386,12 +1368,6 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1416,11 +1392,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1740,8 +1713,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1784,8 +1757,8 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>333</v>
+      <c r="B3" t="s">
+        <v>7</v>
       </c>
       <c r="C3">
         <v>4</v>
@@ -1807,8 +1780,8 @@
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>334</v>
+      <c r="B4" t="s">
+        <v>8</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1827,8 +1800,8 @@
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>335</v>
+      <c r="B5" t="s">
+        <v>9</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -1850,8 +1823,8 @@
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>336</v>
+      <c r="B6" t="s">
+        <v>20</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1870,8 +1843,8 @@
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>337</v>
+      <c r="B7" t="s">
+        <v>21</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -1893,8 +1866,8 @@
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>338</v>
+      <c r="B8" t="s">
+        <v>22</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -1916,8 +1889,8 @@
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>333</v>
+      <c r="B9" t="s">
+        <v>7</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -1936,8 +1909,8 @@
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>334</v>
+      <c r="B10" t="s">
+        <v>8</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1956,8 +1929,8 @@
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>335</v>
+      <c r="B11" t="s">
+        <v>9</v>
       </c>
       <c r="C11">
         <v>4</v>
@@ -1979,8 +1952,8 @@
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>336</v>
+      <c r="B12" t="s">
+        <v>20</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -1996,8 +1969,8 @@
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>337</v>
+      <c r="B13" t="s">
+        <v>21</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -2013,8 +1986,8 @@
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>338</v>
+      <c r="B14" t="s">
+        <v>22</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -2030,8 +2003,8 @@
       <c r="A15">
         <v>13</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>333</v>
+      <c r="B15" t="s">
+        <v>7</v>
       </c>
       <c r="C15">
         <v>4</v>
@@ -2053,8 +2026,8 @@
       <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>334</v>
+      <c r="B16" t="s">
+        <v>8</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -2073,8 +2046,8 @@
       <c r="A17">
         <v>15</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>335</v>
+      <c r="B17" t="s">
+        <v>9</v>
       </c>
       <c r="C17">
         <v>2</v>
@@ -2093,8 +2066,8 @@
       <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>336</v>
+      <c r="B18" t="s">
+        <v>20</v>
       </c>
       <c r="C18">
         <v>4</v>
@@ -2116,8 +2089,8 @@
       <c r="A19">
         <v>17</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>337</v>
+      <c r="B19" t="s">
+        <v>21</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -2136,8 +2109,8 @@
       <c r="A20">
         <v>18</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>338</v>
+      <c r="B20" t="s">
+        <v>22</v>
       </c>
       <c r="C20">
         <v>3</v>
@@ -2159,8 +2132,8 @@
       <c r="A21">
         <v>19</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>333</v>
+      <c r="B21" t="s">
+        <v>7</v>
       </c>
       <c r="C21">
         <v>5</v>
@@ -2182,8 +2155,8 @@
       <c r="A22">
         <v>20</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>334</v>
+      <c r="B22" t="s">
+        <v>8</v>
       </c>
       <c r="C22">
         <v>3</v>
@@ -2205,8 +2178,8 @@
       <c r="A23">
         <v>21</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>334</v>
+      <c r="B23" t="s">
+        <v>8</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -2228,8 +2201,8 @@
       <c r="A24">
         <v>22</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>334</v>
+      <c r="B24" t="s">
+        <v>8</v>
       </c>
       <c r="C24">
         <v>2</v>
@@ -2248,8 +2221,8 @@
       <c r="A25">
         <v>23</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>334</v>
+      <c r="B25" t="s">
+        <v>8</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -2265,8 +2238,8 @@
       <c r="A26">
         <v>24</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>334</v>
+      <c r="B26" t="s">
+        <v>8</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -2285,8 +2258,8 @@
       <c r="A27">
         <v>25</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>334</v>
+      <c r="B27" t="s">
+        <v>8</v>
       </c>
       <c r="C27">
         <v>3</v>
@@ -2308,8 +2281,8 @@
       <c r="A28">
         <v>26</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>338</v>
+      <c r="B28" t="s">
+        <v>22</v>
       </c>
       <c r="C28">
         <v>4</v>
@@ -2331,8 +2304,8 @@
       <c r="A29">
         <v>27</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>338</v>
+      <c r="B29" t="s">
+        <v>22</v>
       </c>
       <c r="C29">
         <v>3</v>
@@ -2351,8 +2324,8 @@
       <c r="A30">
         <v>28</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>334</v>
+      <c r="B30" t="s">
+        <v>8</v>
       </c>
       <c r="C30">
         <v>2</v>
@@ -2371,8 +2344,8 @@
       <c r="A31">
         <v>29</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>334</v>
+      <c r="B31" t="s">
+        <v>8</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -2391,8 +2364,8 @@
       <c r="A32">
         <v>30</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>338</v>
+      <c r="B32" t="s">
+        <v>22</v>
       </c>
       <c r="C32">
         <v>3</v>
@@ -2414,8 +2387,8 @@
       <c r="A33">
         <v>31</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>334</v>
+      <c r="B33" t="s">
+        <v>8</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -2437,8 +2410,8 @@
       <c r="A34">
         <v>32</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>334</v>
+      <c r="B34" t="s">
+        <v>8</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -2454,8 +2427,8 @@
       <c r="A35">
         <v>33</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>334</v>
+      <c r="B35" t="s">
+        <v>8</v>
       </c>
       <c r="C35">
         <v>3</v>
@@ -2471,8 +2444,8 @@
       <c r="A36">
         <v>34</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>334</v>
+      <c r="B36" t="s">
+        <v>8</v>
       </c>
       <c r="C36">
         <v>2</v>
@@ -2494,8 +2467,8 @@
       <c r="A37">
         <v>35</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>338</v>
+      <c r="B37" t="s">
+        <v>22</v>
       </c>
       <c r="C37">
         <v>4</v>
@@ -2517,8 +2490,8 @@
       <c r="A38">
         <v>36</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>338</v>
+      <c r="B38" t="s">
+        <v>22</v>
       </c>
       <c r="C38">
         <v>4</v>
@@ -2537,8 +2510,8 @@
       <c r="A39">
         <v>37</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>338</v>
+      <c r="B39" t="s">
+        <v>22</v>
       </c>
       <c r="C39">
         <v>3</v>
@@ -2557,8 +2530,8 @@
       <c r="A40">
         <v>38</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>338</v>
+      <c r="B40" t="s">
+        <v>22</v>
       </c>
       <c r="C40">
         <v>3</v>
@@ -2577,8 +2550,8 @@
       <c r="A41">
         <v>39</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>338</v>
+      <c r="B41" t="s">
+        <v>22</v>
       </c>
       <c r="C41">
         <v>3</v>
@@ -2597,8 +2570,8 @@
       <c r="A42">
         <v>40</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>338</v>
+      <c r="B42" t="s">
+        <v>22</v>
       </c>
       <c r="C42">
         <v>4</v>
@@ -2617,8 +2590,8 @@
       <c r="A43">
         <v>41</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>336</v>
+      <c r="B43" t="s">
+        <v>20</v>
       </c>
       <c r="C43">
         <v>4</v>
@@ -2637,8 +2610,8 @@
       <c r="A44">
         <v>42</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>334</v>
+      <c r="B44" t="s">
+        <v>8</v>
       </c>
       <c r="C44">
         <v>2</v>
@@ -2660,8 +2633,8 @@
       <c r="A45">
         <v>43</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>338</v>
+      <c r="B45" t="s">
+        <v>22</v>
       </c>
       <c r="C45">
         <v>2</v>
@@ -2680,8 +2653,8 @@
       <c r="A46">
         <v>44</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>333</v>
+      <c r="B46" t="s">
+        <v>7</v>
       </c>
       <c r="C46">
         <v>3</v>
@@ -2703,8 +2676,8 @@
       <c r="A47">
         <v>45</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>336</v>
+      <c r="B47" t="s">
+        <v>20</v>
       </c>
       <c r="C47">
         <v>2</v>
@@ -2723,8 +2696,8 @@
       <c r="A48">
         <v>46</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>333</v>
+      <c r="B48" t="s">
+        <v>7</v>
       </c>
       <c r="C48">
         <v>4</v>
@@ -2746,8 +2719,8 @@
       <c r="A49">
         <v>47</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>338</v>
+      <c r="B49" t="s">
+        <v>22</v>
       </c>
       <c r="C49">
         <v>3</v>
@@ -2766,8 +2739,8 @@
       <c r="A50">
         <v>48</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>334</v>
+      <c r="B50" t="s">
+        <v>8</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -2786,8 +2759,8 @@
       <c r="A51">
         <v>49</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>334</v>
+      <c r="B51" t="s">
+        <v>8</v>
       </c>
       <c r="C51">
         <v>2</v>
@@ -2809,8 +2782,8 @@
       <c r="A52">
         <v>50</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>338</v>
+      <c r="B52" t="s">
+        <v>22</v>
       </c>
       <c r="C52">
         <v>2</v>
@@ -2838,7 +2811,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
